--- a/game/MMO/ExcelMMO/link.xlsx
+++ b/game/MMO/ExcelMMO/link.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{600D8AD9-5C2F-438A-961D-535CF1E03B98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A362681-7922-40D3-962D-193EFC7166CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32205" yWindow="1155" windowWidth="22410" windowHeight="13485" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,20 @@
     <sheet name="info_3" sheetId="6" r:id="rId6"/>
     <sheet name="info_4" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -849,7 +862,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1344" uniqueCount="709">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1348" uniqueCount="713">
   <si>
     <t>策划内部描述</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2344,9 +2357,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>心石</t>
-  </si>
-  <si>
     <t>誓约-发起誓约</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2509,15 +2519,6 @@
     <t>1=60
 2=300
 3=600</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-打开UI
-2-指定地图/区域寻路
-3-接取任务
-4-押镖专用
-5-运营活动的空
-6-定位到某任务</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3706,6 +3707,36 @@
   </si>
   <si>
     <t>终身卡-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-打开UI
+2-指定地图/区域寻路
+3-接取任务
+4-押镖专用
+5-运营活动的空
+6-定位到某任务
+8-打开指定的icon名称的限时礼包互动（TimeGiftPanel）-无法继续打开分页签</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动每日礼包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>note</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日礼包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_rukou_gift_day</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动未开启</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4592,8 +4623,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4732,7 +4763,7 @@
       </c>
       <c r="D17" s="14"/>
     </row>
-    <row r="18" spans="1:4" ht="99" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:4" ht="181.5" x14ac:dyDescent="0.15">
       <c r="A18" s="14" t="s">
         <v>9</v>
       </c>
@@ -4740,7 +4771,7 @@
         <v>10</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>406</v>
+        <v>707</v>
       </c>
       <c r="D18" s="14"/>
     </row>
@@ -4903,9 +4934,9 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:BV448"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A168" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B188" sqref="B188"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A242" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D115" sqref="A115:D118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4931,7 +4962,7 @@
         <v>31</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>365</v>
+        <v>709</v>
       </c>
       <c r="C1" s="10" t="s">
         <v>8</v>
@@ -5346,10 +5377,10 @@
         <v>56001010110</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>171</v>
@@ -5362,7 +5393,7 @@
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="I15" t="s">
         <v>46</v>
@@ -5409,10 +5440,10 @@
         <v>56001010111</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>171</v>
@@ -5425,7 +5456,7 @@
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="I16" t="s">
         <v>46</v>
@@ -5440,10 +5471,10 @@
         <v>56001010112</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>171</v>
@@ -5456,7 +5487,7 @@
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="I17" t="s">
         <v>46</v>
@@ -5503,10 +5534,10 @@
         <v>56001010113</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>171</v>
@@ -5519,7 +5550,7 @@
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="2" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="I18" t="s">
         <v>46</v>
@@ -5566,10 +5597,10 @@
         <v>56001010114</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>171</v>
@@ -5582,7 +5613,7 @@
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="2" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="I19" t="s">
         <v>46</v>
@@ -5629,10 +5660,10 @@
         <v>56001010115</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>171</v>
@@ -5645,7 +5676,7 @@
       </c>
       <c r="G20" s="2"/>
       <c r="H20" s="2" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="I20" t="s">
         <v>46</v>
@@ -5692,10 +5723,10 @@
         <v>56001010116</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>171</v>
@@ -5708,7 +5739,7 @@
       </c>
       <c r="G21" s="2"/>
       <c r="H21" s="2" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="I21" t="s">
         <v>46</v>
@@ -5755,10 +5786,10 @@
         <v>56001010117</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>171</v>
@@ -5771,7 +5802,7 @@
       </c>
       <c r="G22" s="2"/>
       <c r="H22" s="2" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="I22" t="s">
         <v>46</v>
@@ -5818,10 +5849,10 @@
         <v>56001010118</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>171</v>
@@ -5834,7 +5865,7 @@
       </c>
       <c r="G23" s="2"/>
       <c r="H23" s="2" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="I23" t="s">
         <v>46</v>
@@ -5881,10 +5912,10 @@
         <v>56001010119</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>171</v>
@@ -5897,7 +5928,7 @@
       </c>
       <c r="G24" s="2"/>
       <c r="H24" s="2" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="I24" t="s">
         <v>46</v>
@@ -5944,10 +5975,10 @@
         <v>56001010120</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>171</v>
@@ -5960,7 +5991,7 @@
       </c>
       <c r="G25" s="2"/>
       <c r="H25" s="2" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="I25" t="s">
         <v>46</v>
@@ -6007,10 +6038,10 @@
         <v>56001010121</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>171</v>
@@ -6023,7 +6054,7 @@
       </c>
       <c r="G26" s="2"/>
       <c r="H26" s="2" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="I26" t="s">
         <v>46</v>
@@ -6070,10 +6101,10 @@
         <v>56001010122</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>171</v>
@@ -6086,7 +6117,7 @@
       </c>
       <c r="G27" s="2"/>
       <c r="H27" s="2" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="I27" t="s">
         <v>46</v>
@@ -6133,10 +6164,10 @@
         <v>56001010123</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>171</v>
@@ -6149,7 +6180,7 @@
       </c>
       <c r="G28" s="2"/>
       <c r="H28" s="2" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="I28" t="s">
         <v>46</v>
@@ -6196,10 +6227,10 @@
         <v>56001010124</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>171</v>
@@ -6212,7 +6243,7 @@
       </c>
       <c r="G29" s="2"/>
       <c r="H29" s="2" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="I29" t="s">
         <v>46</v>
@@ -6259,10 +6290,10 @@
         <v>56001010200</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>171</v>
@@ -6292,10 +6323,10 @@
         <v>56001010201</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>171</v>
@@ -6307,7 +6338,7 @@
         <v>1</v>
       </c>
       <c r="H31" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="I31" s="11" t="s">
         <v>46</v>
@@ -6325,10 +6356,10 @@
         <v>56001010202</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>171</v>
@@ -6340,7 +6371,7 @@
         <v>1</v>
       </c>
       <c r="H32" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="I32" s="11" t="s">
         <v>46</v>
@@ -6358,10 +6389,10 @@
         <v>56001010203</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>171</v>
@@ -6373,7 +6404,7 @@
         <v>1</v>
       </c>
       <c r="H33" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="I33" s="11" t="s">
         <v>46</v>
@@ -6391,10 +6422,10 @@
         <v>56001010204</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>171</v>
@@ -6406,7 +6437,7 @@
         <v>1</v>
       </c>
       <c r="H34" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="I34" s="11" t="s">
         <v>46</v>
@@ -6427,7 +6458,7 @@
         <v>90</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>171</v>
@@ -6439,7 +6470,7 @@
         <v>1</v>
       </c>
       <c r="H35" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="I35" s="11" t="s">
         <v>46</v>
@@ -6460,7 +6491,7 @@
         <v>150</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>171</v>
@@ -6472,7 +6503,7 @@
         <v>1</v>
       </c>
       <c r="H36" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="I36" s="11" t="s">
         <v>46</v>
@@ -6493,7 +6524,7 @@
         <v>180</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>171</v>
@@ -6505,7 +6536,7 @@
         <v>1</v>
       </c>
       <c r="H37" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="I37" s="11" t="s">
         <v>46</v>
@@ -6526,7 +6557,7 @@
         <v>220</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>171</v>
@@ -6538,7 +6569,7 @@
         <v>1</v>
       </c>
       <c r="H38" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="I38" s="11" t="s">
         <v>46</v>
@@ -6559,7 +6590,7 @@
         <v>260</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>171</v>
@@ -6571,7 +6602,7 @@
         <v>1</v>
       </c>
       <c r="H39" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="I39" s="11" t="s">
         <v>46</v>
@@ -6592,7 +6623,7 @@
         <v>300</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>171</v>
@@ -6604,7 +6635,7 @@
         <v>1</v>
       </c>
       <c r="H40" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="I40" s="11" t="s">
         <v>46</v>
@@ -6625,7 +6656,7 @@
         <v>350</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>171</v>
@@ -6637,7 +6668,7 @@
         <v>1</v>
       </c>
       <c r="H41" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="I41" s="11" t="s">
         <v>46</v>
@@ -6658,7 +6689,7 @@
         <v>400</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>171</v>
@@ -6670,7 +6701,7 @@
         <v>1</v>
       </c>
       <c r="H42" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="I42" s="11" t="s">
         <v>46</v>
@@ -6748,7 +6779,7 @@
         <v>56001010401</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C45" t="s">
         <v>154</v>
@@ -6763,7 +6794,7 @@
         <v>1</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="I45" s="2" t="s">
         <v>46</v>
@@ -6810,7 +6841,7 @@
         <v>56001010402</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C46" t="s">
         <v>154</v>
@@ -6825,7 +6856,7 @@
         <v>1</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="I46" s="2" t="s">
         <v>46</v>
@@ -6872,7 +6903,7 @@
         <v>56001010403</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C47" t="s">
         <v>154</v>
@@ -6887,7 +6918,7 @@
         <v>1</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="I47" s="2" t="s">
         <v>46</v>
@@ -6934,7 +6965,7 @@
         <v>56001010404</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C48" t="s">
         <v>154</v>
@@ -6949,7 +6980,7 @@
         <v>1</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="I48" s="2" t="s">
         <v>46</v>
@@ -6996,7 +7027,7 @@
         <v>56001010405</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C49" t="s">
         <v>154</v>
@@ -7011,7 +7042,7 @@
         <v>1</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="I49" s="2" t="s">
         <v>46</v>
@@ -7058,10 +7089,10 @@
         <v>56001010500</v>
       </c>
       <c r="B50" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="C50" s="2" t="s">
         <v>685</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>687</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>171</v>
@@ -7090,10 +7121,10 @@
         <v>56001010501</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>171</v>
@@ -7105,7 +7136,7 @@
         <v>1</v>
       </c>
       <c r="H51" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="I51" s="11" t="s">
         <v>46</v>
@@ -7122,10 +7153,10 @@
         <v>56001010502</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>171</v>
@@ -7137,7 +7168,7 @@
         <v>1</v>
       </c>
       <c r="H52" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="I52" s="11" t="s">
         <v>46</v>
@@ -7154,10 +7185,10 @@
         <v>56001010503</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>171</v>
@@ -7169,7 +7200,7 @@
         <v>1</v>
       </c>
       <c r="H53" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="I53" s="11" t="s">
         <v>46</v>
@@ -7186,10 +7217,10 @@
         <v>56001010504</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>171</v>
@@ -7201,7 +7232,7 @@
         <v>1</v>
       </c>
       <c r="H54" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="I54" s="11" t="s">
         <v>46</v>
@@ -7218,10 +7249,10 @@
         <v>56001010505</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>171</v>
@@ -7233,7 +7264,7 @@
         <v>1</v>
       </c>
       <c r="H55" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="I55" s="11" t="s">
         <v>46</v>
@@ -7250,10 +7281,10 @@
         <v>56001010506</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>171</v>
@@ -7265,7 +7296,7 @@
         <v>1</v>
       </c>
       <c r="H56" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="I56" s="11" t="s">
         <v>46</v>
@@ -7282,10 +7313,10 @@
         <v>56001010507</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>171</v>
@@ -7297,7 +7328,7 @@
         <v>1</v>
       </c>
       <c r="H57" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="I57" s="11" t="s">
         <v>46</v>
@@ -7314,10 +7345,10 @@
         <v>56001010508</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>171</v>
@@ -7329,7 +7360,7 @@
         <v>1</v>
       </c>
       <c r="H58" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="I58" s="11" t="s">
         <v>46</v>
@@ -7346,10 +7377,10 @@
         <v>56001010509</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>171</v>
@@ -7361,7 +7392,7 @@
         <v>1</v>
       </c>
       <c r="H59" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="I59" s="11" t="s">
         <v>46</v>
@@ -7378,10 +7409,10 @@
         <v>56001010510</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>171</v>
@@ -7393,7 +7424,7 @@
         <v>1</v>
       </c>
       <c r="H60" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="I60" s="11" t="s">
         <v>46</v>
@@ -7410,10 +7441,10 @@
         <v>56001010511</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>171</v>
@@ -7425,7 +7456,7 @@
         <v>1</v>
       </c>
       <c r="H61" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="I61" s="11" t="s">
         <v>46</v>
@@ -7442,10 +7473,10 @@
         <v>56001010512</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>171</v>
@@ -7457,7 +7488,7 @@
         <v>1</v>
       </c>
       <c r="H62" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="I62" s="11" t="s">
         <v>46</v>
@@ -7474,10 +7505,10 @@
         <v>56001010513</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>171</v>
@@ -7489,7 +7520,7 @@
         <v>1</v>
       </c>
       <c r="H63" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="I63" s="11" t="s">
         <v>46</v>
@@ -7536,7 +7567,7 @@
         <v>56001010700</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>89</v>
@@ -7611,7 +7642,7 @@
         <v>2</v>
       </c>
       <c r="H67" s="11" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="I67" t="s">
         <v>46</v>
@@ -7641,7 +7672,7 @@
         <v>2</v>
       </c>
       <c r="H68" s="11" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="I68" t="s">
         <v>46</v>
@@ -7731,7 +7762,7 @@
         <v>2</v>
       </c>
       <c r="H71" s="11" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="I71" t="s">
         <v>46</v>
@@ -8253,7 +8284,7 @@
         <v>56001050300</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>214</v>
@@ -8448,7 +8479,7 @@
         <v>5</v>
       </c>
       <c r="H95" s="11" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="I95" t="s">
         <v>46</v>
@@ -8463,7 +8494,7 @@
         <v>56001050261</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>298</v>
@@ -8478,7 +8509,7 @@
         <v>5</v>
       </c>
       <c r="H96" s="11" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="I96" t="s">
         <v>46</v>
@@ -8493,10 +8524,10 @@
         <v>56001050270</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="D97" t="s">
         <v>173</v>
@@ -8508,7 +8539,7 @@
         <v>5</v>
       </c>
       <c r="H97" s="11" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="I97" t="s">
         <v>46</v>
@@ -8523,10 +8554,10 @@
         <v>56001050280</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="D98" t="s">
         <v>173</v>
@@ -8538,7 +8569,7 @@
         <v>5</v>
       </c>
       <c r="H98" s="11" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="I98" t="s">
         <v>46</v>
@@ -8815,7 +8846,7 @@
         <v>122</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D108" t="s">
         <v>241</v>
@@ -9099,7 +9130,7 @@
         <v>56001100450</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C120" s="2"/>
       <c r="E120">
@@ -9109,7 +9140,7 @@
         <v>10</v>
       </c>
       <c r="H120" s="11" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="I120" t="s">
         <v>46</v>
@@ -9120,7 +9151,7 @@
         <v>56001100460</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="C121" s="2"/>
       <c r="E121">
@@ -9130,7 +9161,7 @@
         <v>10</v>
       </c>
       <c r="H121" s="11" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="I121" t="s">
         <v>46</v>
@@ -9438,10 +9469,10 @@
         <v>56001160500</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="E133">
         <v>1</v>
@@ -9464,7 +9495,7 @@
         <v>56001160600</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>132</v>
@@ -9490,7 +9521,7 @@
         <v>56001160700</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>132</v>
@@ -9574,10 +9605,10 @@
         <v>56001170300</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E138">
         <v>1</v>
@@ -9600,10 +9631,10 @@
         <v>56001170400</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E139">
         <v>1</v>
@@ -9626,10 +9657,10 @@
         <v>56001180100</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="D140" t="s">
         <v>75</v>
@@ -9652,10 +9683,10 @@
         <v>56001180101</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="D141" t="s">
         <v>75</v>
@@ -9667,7 +9698,7 @@
         <v>18</v>
       </c>
       <c r="H141" s="11" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
     </row>
     <row r="142" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
@@ -9675,10 +9706,10 @@
         <v>56001180102</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="D142" t="s">
         <v>75</v>
@@ -9690,7 +9721,7 @@
         <v>18</v>
       </c>
       <c r="H142" s="11" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
     </row>
     <row r="143" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
@@ -9698,10 +9729,10 @@
         <v>56001180103</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="D143" t="s">
         <v>75</v>
@@ -9713,7 +9744,7 @@
         <v>18</v>
       </c>
       <c r="H143" s="11" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
     </row>
     <row r="144" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
@@ -9721,10 +9752,10 @@
         <v>56001180104</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="D144" t="s">
         <v>75</v>
@@ -9736,7 +9767,7 @@
         <v>18</v>
       </c>
       <c r="H144" s="11" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
     </row>
     <row r="145" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
@@ -9744,10 +9775,10 @@
         <v>56001180105</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="D145" t="s">
         <v>75</v>
@@ -9759,7 +9790,7 @@
         <v>18</v>
       </c>
       <c r="H145" s="11" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
     </row>
     <row r="146" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
@@ -9767,10 +9798,10 @@
         <v>56001180106</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="D146" t="s">
         <v>75</v>
@@ -9782,7 +9813,7 @@
         <v>18</v>
       </c>
       <c r="H146" s="11" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
     </row>
     <row r="147" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
@@ -9790,10 +9821,10 @@
         <v>56001180107</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="D147" t="s">
         <v>75</v>
@@ -9805,7 +9836,7 @@
         <v>18</v>
       </c>
       <c r="H147" s="11" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
     <row r="148" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
@@ -9839,7 +9870,7 @@
         <v>56001180201</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>188</v>
@@ -9854,7 +9885,7 @@
         <v>18</v>
       </c>
       <c r="H149" s="11" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="I149" t="s">
         <v>46</v>
@@ -9865,7 +9896,7 @@
         <v>56001180202</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>188</v>
@@ -9880,7 +9911,7 @@
         <v>18</v>
       </c>
       <c r="H150" s="11" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="I150" t="s">
         <v>46</v>
@@ -9891,7 +9922,7 @@
         <v>56001180203</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>188</v>
@@ -9906,7 +9937,7 @@
         <v>18</v>
       </c>
       <c r="H151" s="11" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="I151" t="s">
         <v>46</v>
@@ -9917,7 +9948,7 @@
         <v>56001180204</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>188</v>
@@ -9932,7 +9963,7 @@
         <v>18</v>
       </c>
       <c r="H152" s="11" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="I152" t="s">
         <v>46</v>
@@ -9943,7 +9974,7 @@
         <v>56001180205</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>188</v>
@@ -9958,7 +9989,7 @@
         <v>18</v>
       </c>
       <c r="H153" s="11" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="I153" t="s">
         <v>46</v>
@@ -9969,7 +10000,7 @@
         <v>56001180206</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>188</v>
@@ -9984,7 +10015,7 @@
         <v>18</v>
       </c>
       <c r="H154" s="11" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="I154" t="s">
         <v>46</v>
@@ -9995,7 +10026,7 @@
         <v>56001180207</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>188</v>
@@ -10010,7 +10041,7 @@
         <v>18</v>
       </c>
       <c r="H155" s="11" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="I155" t="s">
         <v>46</v>
@@ -10021,7 +10052,7 @@
         <v>56001180208</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>188</v>
@@ -10036,7 +10067,7 @@
         <v>18</v>
       </c>
       <c r="H156" s="11" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="I156" t="s">
         <v>46</v>
@@ -10102,7 +10133,7 @@
         <v>56001180500</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>261</v>
@@ -10131,13 +10162,13 @@
         <v>56001180600</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D160" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="E160">
         <v>1</v>
@@ -10160,13 +10191,13 @@
         <v>56001180700</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="D161" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="E161">
         <v>1</v>
@@ -10189,10 +10220,10 @@
         <v>56001180800</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="D162" t="s">
         <v>75</v>
@@ -10275,7 +10306,7 @@
         <v>56001220200</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>195</v>
@@ -10301,10 +10332,10 @@
         <v>56001220300</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E166">
         <v>1</v>
@@ -10327,10 +10358,10 @@
         <v>56001220400</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="E167">
         <v>1</v>
@@ -10609,10 +10640,10 @@
         <v>56001240504</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="D177" t="s">
         <v>209</v>
@@ -10624,7 +10655,7 @@
         <v>24</v>
       </c>
       <c r="H177" s="11" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="I177" t="s">
         <v>46</v>
@@ -10638,10 +10669,10 @@
         <v>56001240505</v>
       </c>
       <c r="B178" s="46" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C178" s="46" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D178" t="s">
         <v>209</v>
@@ -10653,7 +10684,7 @@
         <v>24</v>
       </c>
       <c r="H178" s="11" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="I178" t="s">
         <v>46</v>
@@ -10696,13 +10727,13 @@
         <v>56001240700</v>
       </c>
       <c r="B180" s="33" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C180" s="33" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="D180" s="6" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="E180" s="6">
         <v>1</v>
@@ -10726,10 +10757,10 @@
         <v>56001240800</v>
       </c>
       <c r="B181" s="33" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C181" s="33" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="D181" t="s">
         <v>209</v>
@@ -10863,13 +10894,13 @@
         <v>56001260600</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="D186" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="E186">
         <v>1</v>
@@ -10892,13 +10923,13 @@
         <v>56001260900</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="D187" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="E187">
         <v>1</v>
@@ -10921,13 +10952,13 @@
         <v>56001260700</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="C188" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="D188" s="33" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="E188">
         <v>1</v>
@@ -10940,7 +10971,7 @@
         <v>7</v>
       </c>
       <c r="I188" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="J188">
         <v>1000</v>
@@ -10984,13 +11015,13 @@
         <v>56001260800</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D189" s="33" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="E189">
         <v>1</v>
@@ -11137,7 +11168,7 @@
         <v>226</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="D193" t="s">
         <v>230</v>
@@ -11149,7 +11180,7 @@
         <v>28</v>
       </c>
       <c r="H193" s="11" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I193" t="s">
         <v>46</v>
@@ -11166,7 +11197,7 @@
         <v>226</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D194" t="s">
         <v>230</v>
@@ -11195,7 +11226,7 @@
         <v>226</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D195" t="s">
         <v>230</v>
@@ -11207,7 +11238,7 @@
         <v>28</v>
       </c>
       <c r="H195" s="11" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="I195" t="s">
         <v>46</v>
@@ -11224,7 +11255,7 @@
         <v>226</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D196" t="s">
         <v>230</v>
@@ -11236,7 +11267,7 @@
         <v>28</v>
       </c>
       <c r="H196" s="11" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="I196" t="s">
         <v>46</v>
@@ -11253,10 +11284,10 @@
         <v>226</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D197" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="E197">
         <v>1</v>
@@ -11265,7 +11296,7 @@
         <v>28</v>
       </c>
       <c r="H197" s="11" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="I197" t="s">
         <v>46</v>
@@ -11415,7 +11446,7 @@
         <v>253</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="E203">
         <v>1</v>
@@ -11633,7 +11664,7 @@
         <v>56002000005</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C212" s="2"/>
       <c r="E212">
@@ -11641,7 +11672,7 @@
       </c>
       <c r="H212" s="11"/>
       <c r="I212" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="213" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
@@ -11664,7 +11695,7 @@
         <v>11</v>
       </c>
       <c r="G213" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="H213" s="11"/>
       <c r="I213" t="s">
@@ -11773,7 +11804,7 @@
         <v>337</v>
       </c>
       <c r="D217" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="E217">
         <v>5</v>
@@ -11788,17 +11819,17 @@
         <v>56001330200</v>
       </c>
       <c r="C218" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="D218" t="s">
         <v>475</v>
-      </c>
-      <c r="D218" t="s">
-        <v>477</v>
       </c>
       <c r="E218">
         <v>5</v>
       </c>
       <c r="H218" s="11"/>
       <c r="I218" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="219" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
@@ -11806,10 +11837,10 @@
         <v>56001340100</v>
       </c>
       <c r="B219" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="C219" t="s">
         <v>366</v>
-      </c>
-      <c r="C219" t="s">
-        <v>367</v>
       </c>
       <c r="D219" t="s">
         <v>363</v>
@@ -11835,10 +11866,10 @@
         <v>56001340200</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C220" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D220" t="s">
         <v>363</v>
@@ -11850,7 +11881,7 @@
         <v>34</v>
       </c>
       <c r="H220" s="11" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I220" t="s">
         <v>46</v>
@@ -11864,10 +11895,10 @@
         <v>56001340300</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C221" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D221" t="s">
         <v>363</v>
@@ -11879,7 +11910,7 @@
         <v>34</v>
       </c>
       <c r="H221" s="11" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I221" t="s">
         <v>46</v>
@@ -11893,13 +11924,13 @@
         <v>56001340400</v>
       </c>
       <c r="B222" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="C222" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="D222" t="s">
         <v>413</v>
-      </c>
-      <c r="C222" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="D222" t="s">
-        <v>415</v>
       </c>
       <c r="E222">
         <v>1</v>
@@ -11922,10 +11953,10 @@
         <v>56001340500</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D223" t="s">
         <v>363</v>
@@ -11977,10 +12008,10 @@
         <v>56001360100</v>
       </c>
       <c r="B225" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="C225" t="s">
         <v>376</v>
-      </c>
-      <c r="C225" t="s">
-        <v>377</v>
       </c>
       <c r="E225">
         <v>1</v>
@@ -12000,10 +12031,10 @@
         <v>56001370100</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C226" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E226">
         <v>1</v>
@@ -12023,20 +12054,20 @@
         <v>56001370101</v>
       </c>
       <c r="B227" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="C227" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="D227" t="s">
         <v>499</v>
-      </c>
-      <c r="C227" s="2" t="s">
-        <v>500</v>
-      </c>
-      <c r="D227" t="s">
-        <v>501</v>
       </c>
       <c r="E227">
         <v>5</v>
       </c>
       <c r="H227" s="47"/>
       <c r="I227" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="228" spans="1:9" ht="16.5" x14ac:dyDescent="0.35">
@@ -12044,20 +12075,20 @@
         <v>56001370102</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D228" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="E228">
         <v>5</v>
       </c>
       <c r="H228" s="47"/>
       <c r="I228" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="229" spans="1:9" ht="16.5" x14ac:dyDescent="0.35">
@@ -12065,20 +12096,20 @@
         <v>56001370103</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D229" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="E229">
         <v>5</v>
       </c>
       <c r="H229" s="47"/>
       <c r="I229" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="230" spans="1:9" ht="16.5" x14ac:dyDescent="0.35">
@@ -12086,20 +12117,20 @@
         <v>56001370104</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D230" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="E230">
         <v>5</v>
       </c>
       <c r="H230" s="47"/>
       <c r="I230" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="231" spans="1:9" ht="16.5" x14ac:dyDescent="0.35">
@@ -12107,20 +12138,20 @@
         <v>56001370105</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D231" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="E231">
         <v>5</v>
       </c>
       <c r="H231" s="47"/>
       <c r="I231" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="232" spans="1:9" ht="16.5" x14ac:dyDescent="0.35">
@@ -12128,20 +12159,20 @@
         <v>56001370106</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D232" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="E232">
         <v>5</v>
       </c>
       <c r="H232" s="47"/>
       <c r="I232" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="233" spans="1:9" ht="16.5" x14ac:dyDescent="0.35">
@@ -12149,20 +12180,20 @@
         <v>56001370107</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D233" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="E233">
         <v>5</v>
       </c>
       <c r="H233" s="47"/>
       <c r="I233" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="234" spans="1:9" ht="16.5" x14ac:dyDescent="0.35">
@@ -12170,20 +12201,20 @@
         <v>56001370108</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D234" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="E234">
         <v>5</v>
       </c>
       <c r="H234" s="47"/>
       <c r="I234" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="235" spans="1:9" ht="16.5" x14ac:dyDescent="0.35">
@@ -12191,20 +12222,20 @@
         <v>56001370109</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D235" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="E235">
         <v>5</v>
       </c>
       <c r="H235" s="47"/>
       <c r="I235" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="236" spans="1:9" ht="16.5" x14ac:dyDescent="0.35">
@@ -12212,20 +12243,20 @@
         <v>56001370110</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D236" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="E236">
         <v>5</v>
       </c>
       <c r="H236" s="47"/>
       <c r="I236" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="237" spans="1:9" ht="16.5" x14ac:dyDescent="0.35">
@@ -12233,20 +12264,20 @@
         <v>56001370111</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D237" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="E237">
         <v>5</v>
       </c>
       <c r="H237" s="47"/>
       <c r="I237" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="238" spans="1:9" ht="16.5" x14ac:dyDescent="0.35">
@@ -12254,20 +12285,20 @@
         <v>56001370112</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D238" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="E238">
         <v>5</v>
       </c>
       <c r="H238" s="47"/>
       <c r="I238" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="239" spans="1:9" ht="16.5" x14ac:dyDescent="0.35">
@@ -12275,13 +12306,13 @@
         <v>56001370113</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="D239" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="E239">
         <v>2</v>
@@ -12296,7 +12327,7 @@
         <v>1</v>
       </c>
       <c r="I239" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
     </row>
     <row r="240" spans="1:9" ht="16.5" x14ac:dyDescent="0.35">
@@ -12304,13 +12335,13 @@
         <v>56001370114</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="D240" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="E240">
         <v>7</v>
@@ -12322,7 +12353,7 @@
         <v>31021030020</v>
       </c>
       <c r="I240" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="241" spans="1:9" ht="16.5" x14ac:dyDescent="0.35">
@@ -12330,20 +12361,20 @@
         <v>56001370115</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C241" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="D241" t="s">
         <v>528</v>
-      </c>
-      <c r="D241" t="s">
-        <v>530</v>
       </c>
       <c r="E241">
         <v>5</v>
       </c>
       <c r="H241" s="47"/>
       <c r="I241" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="242" spans="1:9" ht="16.5" x14ac:dyDescent="0.35">
@@ -12351,20 +12382,20 @@
         <v>56001370116</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="D242" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="E242">
         <v>5</v>
       </c>
       <c r="H242" s="47"/>
       <c r="I242" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="243" spans="1:9" ht="16.5" x14ac:dyDescent="0.35">
@@ -12372,20 +12403,20 @@
         <v>56001370117</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C243" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="D243" t="s">
         <v>528</v>
-      </c>
-      <c r="D243" t="s">
-        <v>530</v>
       </c>
       <c r="E243">
         <v>5</v>
       </c>
       <c r="H243" s="47"/>
       <c r="I243" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="244" spans="1:9" ht="16.5" x14ac:dyDescent="0.35">
@@ -12393,13 +12424,13 @@
         <v>56001370118</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D244" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="E244">
         <v>7</v>
@@ -12411,7 +12442,7 @@
         <v>31021030040</v>
       </c>
       <c r="I244" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="245" spans="1:9" x14ac:dyDescent="0.15">
@@ -12419,7 +12450,7 @@
         <v>56001370119</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="C245" s="2" t="s">
         <v>48</v>
@@ -12435,7 +12466,7 @@
       </c>
       <c r="G245" s="2"/>
       <c r="H245" s="2" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="I245" t="s">
         <v>46</v>
@@ -12446,13 +12477,13 @@
         <v>56001370120</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="E246">
         <v>2</v>
@@ -12467,7 +12498,7 @@
         <v>1</v>
       </c>
       <c r="I246" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
     </row>
     <row r="247" spans="1:9" x14ac:dyDescent="0.15">
@@ -12475,10 +12506,10 @@
         <v>56001370127</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="D247" s="2" t="s">
         <v>171</v>
@@ -12491,7 +12522,7 @@
       </c>
       <c r="G247" s="2"/>
       <c r="H247" s="2" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="I247" t="s">
         <v>46</v>
@@ -12502,10 +12533,10 @@
         <v>56001370128</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="D248" s="2" t="s">
         <v>171</v>
@@ -12518,7 +12549,7 @@
       </c>
       <c r="G248" s="2"/>
       <c r="H248" s="2" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="I248" t="s">
         <v>46</v>
@@ -12529,10 +12560,10 @@
         <v>56001370129</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="D249" s="2" t="s">
         <v>171</v>
@@ -12545,7 +12576,7 @@
       </c>
       <c r="G249" s="2"/>
       <c r="H249" s="2" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="I249" t="s">
         <v>46</v>
@@ -12556,13 +12587,13 @@
         <v>56001370301</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="E250">
         <v>2</v>
@@ -12577,7 +12608,7 @@
         <v>1</v>
       </c>
       <c r="I250" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
     </row>
     <row r="251" spans="1:9" x14ac:dyDescent="0.15">
@@ -12585,13 +12616,13 @@
         <v>56001370302</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="E251">
         <v>2</v>
@@ -12606,7 +12637,7 @@
         <v>1</v>
       </c>
       <c r="I251" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
     </row>
     <row r="252" spans="1:9" ht="16.5" x14ac:dyDescent="0.35">
@@ -12614,20 +12645,20 @@
         <v>56001370303</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="E252">
         <v>5</v>
       </c>
       <c r="H252" s="47"/>
       <c r="I252" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="253" spans="1:9" ht="16.5" x14ac:dyDescent="0.35">
@@ -12635,20 +12666,20 @@
         <v>56001370304</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="E253">
         <v>5</v>
       </c>
       <c r="H253" s="47"/>
       <c r="I253" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="254" spans="1:9" ht="16.5" x14ac:dyDescent="0.35">
@@ -12656,20 +12687,20 @@
         <v>56001370305</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="E254">
         <v>5</v>
       </c>
       <c r="H254" s="47"/>
       <c r="I254" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="255" spans="1:9" ht="16.5" x14ac:dyDescent="0.35">
@@ -12677,13 +12708,13 @@
         <v>56001370306</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="D255" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="E255" s="48">
         <v>2</v>
@@ -12698,7 +12729,7 @@
         <v>1</v>
       </c>
       <c r="I255" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
     </row>
     <row r="256" spans="1:9" ht="16.5" x14ac:dyDescent="0.35">
@@ -12706,13 +12737,13 @@
         <v>56001370307</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D256" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="E256" s="48">
         <v>2</v>
@@ -12727,7 +12758,7 @@
         <v>1</v>
       </c>
       <c r="I256" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="257" spans="1:73" ht="16.5" x14ac:dyDescent="0.35">
@@ -12735,13 +12766,13 @@
         <v>56001370308</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D257" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="E257" s="48">
         <v>2</v>
@@ -12756,7 +12787,7 @@
         <v>1</v>
       </c>
       <c r="I257" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="258" spans="1:73" ht="16.5" x14ac:dyDescent="0.35">
@@ -12764,13 +12795,13 @@
         <v>56001370309</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D258" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="E258" s="48">
         <v>2</v>
@@ -12785,7 +12816,7 @@
         <v>1</v>
       </c>
       <c r="I258" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="259" spans="1:73" ht="16.5" x14ac:dyDescent="0.35">
@@ -12793,13 +12824,13 @@
         <v>56001370310</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D259" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="E259" s="48">
         <v>2</v>
@@ -12814,7 +12845,7 @@
         <v>1</v>
       </c>
       <c r="I259" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="260" spans="1:73" x14ac:dyDescent="0.15">
@@ -12822,13 +12853,13 @@
         <v>56001380100</v>
       </c>
       <c r="B260" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="C260" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="D260" t="s">
         <v>396</v>
-      </c>
-      <c r="C260" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="D260" t="s">
-        <v>397</v>
       </c>
       <c r="E260">
         <v>1</v>
@@ -12885,13 +12916,13 @@
         <v>56001390100</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D261" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E261">
         <v>1</v>
@@ -12945,13 +12976,13 @@
         <v>56001390200</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D262" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E262">
         <v>1</v>
@@ -13005,13 +13036,13 @@
         <v>56001390300</v>
       </c>
       <c r="B263" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="C263" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="D263" t="s">
         <v>401</v>
-      </c>
-      <c r="C263" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="D263" t="s">
-        <v>402</v>
       </c>
       <c r="E263">
         <v>1</v>
@@ -13024,7 +13055,7 @@
         <v>3</v>
       </c>
       <c r="I263" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="K263" s="2"/>
       <c r="M263" s="2"/>
@@ -13065,10 +13096,10 @@
         <v>56001400100</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C264" s="2" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D264" s="2"/>
       <c r="E264">
@@ -13077,7 +13108,7 @@
       <c r="G264" s="2"/>
       <c r="H264" s="2"/>
       <c r="I264" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="K264" s="2"/>
       <c r="M264" s="2"/>
@@ -13118,13 +13149,13 @@
         <v>56001410100</v>
       </c>
       <c r="B265" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C265" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D265" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E265">
         <v>1</v>
@@ -13181,10 +13212,10 @@
         <v>56001410200</v>
       </c>
       <c r="B266" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C266" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D266" s="2"/>
       <c r="E266">
@@ -13242,10 +13273,10 @@
         <v>56001420100</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="D267" s="2"/>
       <c r="E267">
@@ -13302,13 +13333,13 @@
         <v>56001430100</v>
       </c>
       <c r="B268" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="C268" t="s">
+        <v>465</v>
+      </c>
+      <c r="D268" s="2" t="s">
         <v>466</v>
-      </c>
-      <c r="C268" t="s">
-        <v>467</v>
-      </c>
-      <c r="D268" s="2" t="s">
-        <v>468</v>
       </c>
       <c r="E268">
         <v>1</v>
@@ -13365,13 +13396,13 @@
         <v>56001440100</v>
       </c>
       <c r="B269" s="33" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C269" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="D269" s="33" t="s">
         <v>484</v>
-      </c>
-      <c r="D269" s="33" t="s">
-        <v>486</v>
       </c>
       <c r="E269" s="6">
         <v>1</v>
@@ -13428,13 +13459,13 @@
         <v>56001460100</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="C270" s="2" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="D270" s="2" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="E270">
         <v>1</v>
@@ -13486,18 +13517,18 @@
       <c r="BS270" s="2"/>
       <c r="BU270" s="2"/>
     </row>
-    <row r="271" spans="1:73" x14ac:dyDescent="0.15">
+    <row r="271" spans="1:73" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A271">
         <v>56001470100</v>
       </c>
       <c r="B271" s="2" t="s">
+        <v>652</v>
+      </c>
+      <c r="C271" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="D271" s="2" t="s">
         <v>654</v>
-      </c>
-      <c r="C271" s="2" t="s">
-        <v>655</v>
-      </c>
-      <c r="D271" s="2" t="s">
-        <v>656</v>
       </c>
       <c r="E271">
         <v>1</v>
@@ -13546,10 +13577,29 @@
       <c r="BS271" s="2"/>
       <c r="BU271" s="2"/>
     </row>
-    <row r="272" spans="1:73" x14ac:dyDescent="0.15">
-      <c r="D272" s="2"/>
+    <row r="272" spans="1:73" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A272">
+        <v>56007000000</v>
+      </c>
+      <c r="B272" s="2" t="s">
+        <v>708</v>
+      </c>
+      <c r="C272" s="2" t="s">
+        <v>710</v>
+      </c>
+      <c r="D272" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="E272">
+        <v>8</v>
+      </c>
       <c r="G272" s="2"/>
-      <c r="H272" s="2"/>
+      <c r="H272" s="2">
+        <v>1</v>
+      </c>
+      <c r="I272" t="s">
+        <v>712</v>
+      </c>
       <c r="K272" s="2"/>
       <c r="M272" s="2"/>
       <c r="N272"/>
@@ -20940,7 +20990,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A204:A270 A52 A54 A56 A58 A60 A62:A64 A1:A50 A66:A88 A272:A1048576 A198:A201 A90:A192">
+  <conditionalFormatting sqref="A204:A270 A52 A54 A56 A58 A60 A62:A64 A1:A50 A66:A88 A273:A1048576 A198:A201 A90:A192">
     <cfRule type="duplicateValues" dxfId="8" priority="43"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A51 A53 A55 A57 A59 A61">
@@ -20958,7 +21008,7 @@
   <conditionalFormatting sqref="A203">
     <cfRule type="duplicateValues" dxfId="3" priority="7"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A271">
+  <conditionalFormatting sqref="A271:A272">
     <cfRule type="duplicateValues" dxfId="2" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A193:A197">
@@ -20976,9 +21026,9 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D1" sqref="D1:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -21026,13 +21076,13 @@
         <v>56</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="D2" s="28" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="E2" s="51" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="F2" s="13"/>
     </row>
@@ -21112,7 +21162,7 @@
         <v>59</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="54" x14ac:dyDescent="0.15">
@@ -21243,7 +21293,7 @@
         <v>149</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="54" x14ac:dyDescent="0.15">
@@ -21257,7 +21307,7 @@
         <v>134</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="81" x14ac:dyDescent="0.15">
@@ -21268,10 +21318,10 @@
         <v>139</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="20" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.15">
@@ -21315,7 +21365,7 @@
         <v>59</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
@@ -21343,10 +21393,10 @@
         <v>258</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
@@ -21371,10 +21421,10 @@
         <v>220</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
@@ -21399,10 +21449,10 @@
         <v>226</v>
       </c>
       <c r="C29" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="D29" s="13" t="s">
         <v>382</v>
-      </c>
-      <c r="D29" s="13" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.15">
@@ -21469,13 +21519,13 @@
         <v>360</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E34" s="13" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.15">
@@ -21483,13 +21533,13 @@
         <v>35</v>
       </c>
       <c r="B35" s="12" t="s">
+        <v>370</v>
+      </c>
+      <c r="C35" s="12">
+        <v>1</v>
+      </c>
+      <c r="D35" s="12" t="s">
         <v>371</v>
-      </c>
-      <c r="C35" s="12">
-        <v>1</v>
-      </c>
-      <c r="D35" s="12" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.15">
@@ -21497,13 +21547,13 @@
         <v>36</v>
       </c>
       <c r="B36" s="12" t="s">
+        <v>377</v>
+      </c>
+      <c r="C36" s="12">
+        <v>1</v>
+      </c>
+      <c r="D36" s="12" t="s">
         <v>378</v>
-      </c>
-      <c r="C36" s="12">
-        <v>1</v>
-      </c>
-      <c r="D36" s="12" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.15">
@@ -21511,13 +21561,13 @@
         <v>37</v>
       </c>
       <c r="B37" s="12" t="s">
+        <v>392</v>
+      </c>
+      <c r="C37" s="12">
+        <v>1</v>
+      </c>
+      <c r="D37" s="12" t="s">
         <v>393</v>
-      </c>
-      <c r="C37" s="12">
-        <v>1</v>
-      </c>
-      <c r="D37" s="12" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.15">
@@ -21525,13 +21575,13 @@
         <v>38</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C38" s="12">
         <v>1</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
@@ -21539,13 +21589,13 @@
         <v>39</v>
       </c>
       <c r="B39" s="12" t="s">
+        <v>402</v>
+      </c>
+      <c r="C39" s="12" t="s">
         <v>403</v>
       </c>
-      <c r="C39" s="12" t="s">
+      <c r="D39" s="13" t="s">
         <v>404</v>
-      </c>
-      <c r="D39" s="13" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.15">
@@ -21553,7 +21603,7 @@
         <v>40</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="D40" s="13"/>
     </row>
@@ -21562,13 +21612,13 @@
         <v>41</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C41" s="12" t="s">
         <v>97</v>
       </c>
       <c r="D41" s="13" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.15">
@@ -21576,7 +21626,7 @@
         <v>42</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.15">
@@ -21584,7 +21634,7 @@
         <v>43</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C43" s="12">
         <v>1</v>
@@ -21595,7 +21645,7 @@
         <v>44</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C44" s="12">
         <v>1</v>
@@ -21606,7 +21656,7 @@
         <v>45</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.15">
@@ -21614,7 +21664,7 @@
         <v>46</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.15">
@@ -21622,7 +21672,7 @@
         <v>90</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="C47" s="12">
         <v>1</v>
